--- a/biology/Histoire de la zoologie et de la botanique/Udagawa_Yōan/Udagawa_Yōan.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Udagawa_Yōan/Udagawa_Yōan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Udagawa_Y%C5%8Dan</t>
+          <t>Udagawa_Yōan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Udagawa Yōan (宇田川榕菴) est un scientifique japonais, né en 1798 et mort en 1846.
 Il est le fils du médecin Ezawa Yōju (江沢養樹). Il étudie auprès de Udagawa Shinsai (宇田川榛斎) (1769-1834).
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Udagawa_Y%C5%8Dan</t>
+          <t>Udagawa_Yōan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Traduction de l'article de langue anglaise de Wikipédia (version du 13 octobre 2007).
 Masuzō Ueno (1964). The Western Influence on Natural History in Japan, Monumenta Nipponica, 19 (3/4) : 315-339.  (ISSN 0027-0741)
